--- a/150/Arbeitsblätter/AB 1/Anforderungen.xlsx
+++ b/150/Arbeitsblätter/AB 1/Anforderungen.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gibbch-my.sharepoint.com/personal/gbr106767_stud_gibb_ch/Documents/Schule/GIBB/inf-150/Arbeitsblätter/AB 1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D2DE779B-5837-0F46-89B9-C5CB6A6EDA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0474509F-3B6D-504D-9CE6-3FD28CB04D4A}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D25315-3FF5-A646-9E73-582919E27414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30860" windowHeight="17960" xr2:uid="{0A73B32F-92D5-4593-949C-968DCADD5B5F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30860" windowHeight="17960" xr2:uid="{0A73B32F-92D5-4593-949C-968DCADD5B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -466,7 +461,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,6 +610,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010040DF8ACCD2D21941A325EF4144FBD848" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="5f03ac8211fdb50dd6364943f4aba991">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bdc21b0a-36a2-43ac-89fc-55b8857c52d1" xmlns:ns4="cf3f38b4-3c81-4c92-bee9-ca8537ee61e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0af11d70a31925831895bd111a3203d6" ns3:_="" ns4:_="">
     <xsd:import namespace="bdc21b0a-36a2-43ac-89fc-55b8857c52d1"/>
@@ -817,12 +818,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -833,6 +828,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956B6BCC-4EBC-4406-ADE9-DDC63050CBFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cf3f38b4-3c81-4c92-bee9-ca8537ee61e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bdc21b0a-36a2-43ac-89fc-55b8857c52d1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B511CA4-F6F2-4D70-92F7-7E15BA3E5EB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -852,23 +864,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{956B6BCC-4EBC-4406-ADE9-DDC63050CBFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cf3f38b4-3c81-4c92-bee9-ca8537ee61e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bdc21b0a-36a2-43ac-89fc-55b8857c52d1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAD7EA12-17ED-439B-ABDA-7502A3AA8A9F}">
   <ds:schemaRefs>
